--- a/similarities/split_global/harmonic_similarity_timestamps_352.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_352.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,186 +484,202 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:15.580000', '0:01:32.280000')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=75.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['C:7', 'F:maj', 'F:7/b7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Ab:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:00:49.217000', '0:00:53.859000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:11.460000', '0:02:13.760000')]</t>
+          <t>('0:00:14.910000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=131.46']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_40</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:maj7']]</t>
+          <t>['E:7', 'A:min', 'A:min/E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:maj7']]</t>
+          <t>['E:7', 'A:min', 'A:min/b7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:57.830000', '0:01:03.320000')]</t>
+          <t>('0:00:46.740000', '0:00:53.460000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:00.420000', '0:01:06.230000')]</t>
+          <t>('0:00:40.049000', '0:00:48.539000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=57.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=46.74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-40#t=60.42']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:16.562199', '0:00:24.735623')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:58.300000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=58.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -672,518 +688,542 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:11.070127', '0:00:14.541510')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=30.06']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:03.292358', '0:01:10.397664')]</t>
+          <t>('0:00:36.220000', '0:00:49')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:03:20.520000', '0:03:23.860000')]</t>
+          <t>('0:01:39.280000', '0:01:54.020000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=63.292358']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=36.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=99.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:08.080000', '0:00:26.260000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:20.240000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>isophonics_93</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'G:7']]</t>
+          <t>['D:min7/4', 'F:maj/9', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'F:7']]</t>
+          <t>['B:min7', 'D/2', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:39.540045')]</t>
+          <t>('0:00:19.081564', '0:00:22.808367')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:18.960000')]</t>
+          <t>('0:01:55.998000', '0:01:59.402000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=19.081564</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=14.44']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=115.998</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:56.480000')]</t>
+          <t>('0:00:42.340000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
+          <t>('0:00:08.180000', '0:00:10.480000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.18</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:01:06.100000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:17.560000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F/3', 'Bb', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.656213', '0:00:06.319079')]</t>
+          <t>('0:00:29.008095', '0:00:34.615714')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:03.461000', '0:01:06.732000')]</t>
+          <t>('0:03:46.220000', '0:03:49.640000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-39#t=0.656213']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=29.008095</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['E', 'A', 'E', 'A', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:07.702000', '0:00:15.006000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+          <t>('0:00:19.672232', '0:00:31.200939')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=19.672232</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
